--- a/data-raw/unhcr_2021/iati_activity.xlsx
+++ b/data-raw/unhcr_2021/iati_activity.xlsx
@@ -667,27 +667,27 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -834,42 +834,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1198,42 +1198,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1390,22 +1390,22 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1562,42 +1562,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1941,17 +1941,17 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2113,42 +2113,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2285,27 +2285,27 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2619,42 +2619,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2816,17 +2816,17 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2963,22 +2963,22 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3140,27 +3140,27 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3302,12 +3302,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3474,42 +3474,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3661,27 +3661,27 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3818,42 +3818,42 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -4005,22 +4005,22 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -4364,22 +4364,22 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4526,37 +4526,37 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -4693,42 +4693,42 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4860,12 +4860,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -4890,12 +4890,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -5027,34 +5027,34 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Y27" t="inlineStr">
         <is>
           <t>2021-12-31</t>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -5209,27 +5209,27 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -5543,12 +5543,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -5558,17 +5558,17 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -5872,27 +5872,27 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -6044,12 +6044,12 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -6059,17 +6059,17 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -6226,22 +6226,22 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -6565,22 +6565,22 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -6899,22 +6899,22 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -7061,27 +7061,27 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -7213,22 +7213,22 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -7714,42 +7714,42 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -7911,27 +7911,27 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -8103,17 +8103,17 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -8270,22 +8270,22 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -8422,27 +8422,27 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -8589,22 +8589,22 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8766,17 +8766,17 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -8786,17 +8786,17 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -8928,12 +8928,12 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -8943,17 +8943,17 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -9272,22 +9272,22 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -9459,27 +9459,27 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -9636,12 +9636,12 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -9656,12 +9656,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -9808,22 +9808,22 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -10157,17 +10157,17 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -10182,12 +10182,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -10319,12 +10319,12 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -10334,17 +10334,17 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -10496,12 +10496,12 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -10511,17 +10511,17 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -10663,12 +10663,12 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -10678,17 +10678,17 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -10820,42 +10820,42 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -10987,42 +10987,42 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -11154,22 +11154,22 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -11326,17 +11326,17 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -11351,12 +11351,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -11660,7 +11660,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -11827,12 +11827,12 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -11852,17 +11852,17 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -11994,42 +11994,42 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -12161,24 +12161,24 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="W69" t="inlineStr">
         <is>
           <t>2021-12-31</t>
@@ -12186,17 +12186,17 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -12353,22 +12353,22 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -12515,27 +12515,27 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -12667,22 +12667,22 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -12834,42 +12834,42 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -13001,42 +13001,42 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -13183,27 +13183,27 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -13502,22 +13502,22 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -13669,24 +13669,24 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="W78" t="inlineStr">
         <is>
           <t>2021-01-01</t>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -13846,32 +13846,32 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -14013,12 +14013,12 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -14033,12 +14033,12 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -14190,22 +14190,22 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -14347,12 +14347,12 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -14367,12 +14367,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -14686,22 +14686,22 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -14883,17 +14883,17 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -15050,22 +15050,22 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -15242,22 +15242,22 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -15394,7 +15394,7 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -15404,27 +15404,27 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -15556,12 +15556,12 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -15586,12 +15586,12 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -15723,12 +15723,12 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -15743,12 +15743,12 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -16239,12 +16239,12 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -16269,12 +16269,12 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -16421,42 +16421,42 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -16608,32 +16608,32 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -16780,22 +16780,22 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
@@ -16952,7 +16952,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -16962,19 +16962,19 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Y97" t="inlineStr">
         <is>
           <t>2021-12-31</t>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -17119,22 +17119,22 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
@@ -17154,7 +17154,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -17296,12 +17296,12 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
@@ -17311,17 +17311,17 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -17468,12 +17468,12 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
@@ -17488,12 +17488,12 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -17640,12 +17640,12 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
@@ -17660,12 +17660,12 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -17807,7 +17807,7 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
@@ -17984,22 +17984,22 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -18146,22 +18146,22 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -18318,27 +18318,27 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -18500,7 +18500,7 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -18677,42 +18677,42 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -18864,42 +18864,42 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -19036,12 +19036,12 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
@@ -19066,12 +19066,12 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -19213,7 +19213,7 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
@@ -19223,27 +19223,27 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -19380,42 +19380,42 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
@@ -19582,7 +19582,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -19714,42 +19714,42 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
@@ -19881,42 +19881,42 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
@@ -20048,32 +20048,32 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -20220,19 +20220,19 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="W116" t="inlineStr">
         <is>
           <t>2021-12-31</t>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
@@ -20402,22 +20402,22 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
@@ -20761,27 +20761,27 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z119" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
@@ -20913,12 +20913,12 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
@@ -20933,22 +20933,22 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X120" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z120" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y120" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
@@ -21080,42 +21080,42 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z121" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="W121" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr">
@@ -21262,27 +21262,27 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA122" t="inlineStr">
@@ -21414,22 +21414,22 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -21581,42 +21581,42 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -21753,17 +21753,17 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
@@ -21773,17 +21773,17 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
@@ -22082,12 +22082,12 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
@@ -22102,22 +22102,22 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="Z127" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y127" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="Z127" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
@@ -22259,24 +22259,24 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W128" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Y128" t="inlineStr">
         <is>
           <t>2021-12-31</t>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
@@ -22416,12 +22416,12 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
@@ -22436,12 +22436,12 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -22451,7 +22451,7 @@
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
@@ -22588,29 +22588,29 @@
       </c>
       <c r="T130" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="V130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W130" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="X130" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Y130" t="inlineStr">
         <is>
           <t>2021-12-31</t>
@@ -22618,7 +22618,7 @@
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
@@ -22937,7 +22937,7 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
@@ -22952,22 +22952,22 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
@@ -23114,12 +23114,12 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
@@ -23129,17 +23129,17 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
@@ -23296,12 +23296,12 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
@@ -23311,17 +23311,17 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
